--- a/StructureDefinition-onconova-medication-administration.xlsx
+++ b/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:38:38+00:00</t>
+    <t>2025-10-15T14:58:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-medication-administration.xlsx
+++ b/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:58:32+00:00</t>
+    <t>2025-10-15T15:04:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-medication-administration.xlsx
+++ b/StructureDefinition-onconova-medication-administration.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:04:18+00:00</t>
+    <t>2025-10-17T13:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -272,7 +272,7 @@
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mcode-reason-required:One of reasonCode or reasonReference SHALL be present {reasonCode.exists() or reasonReference.exists()}termination-reason-code-invariant:When status is stopped, only certain statusReason values are allowed {status = 'stopped' and statusReason.exists() and statusReason.coding.exists() implies statusReason.coding.exists(system = 'http://snomed.info/sct' and (code = '182992009' or code = '266721009' or code = '407563006' or code = '160932005' or code = '105480006' or code = '184081006' or code = '309846006' or code = '399307001' or code = '419620001' or code = '7058009' or code = '443729008' or code = '77386006'))}termination-reason-invariant:Certain statusReason values are allowed only when status is stopped {statusReason.exists() and statusReason.coding.exists(
       system = 'http://snomed.info/sct' and (code = '182992009' or code = '266721009' or code = '407563006' or code = '160932005' or
- code = '105480006' or code = '184081006' or code = '309846006' or code = '399307001' or  code = '419620001' or code = '7058009' or code = '443729008' or code = '77386006')) implies status = 'stopped'}</t>
+ code = '105480006' or code = '184081006' or code = '309846006' or code = '399307001' or  code = '419620001' or code = '7058009' or code = '443729008' or code = '77386006')) implies status = 'stopped'}o-med-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-med-req-2:The effectivePeriod element is required and must be provided. {effectivePeriod.exists() and effectivePeriod.hasValue()}o-med-req-3:The treatmentIntent extension is required and must be provided. {extension('http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-procedure-intent').exists()}o-med-req-4:The medicationCodeableConcept element is required and must be provided. {medicationCodeableConcept.exists() and medicationCodeableConcept.coding.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -494,7 +494,7 @@
     <t>combinedWith</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-combined-with|0.1.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-combined-with|0.2.0}
 </t>
   </si>
   <si>
@@ -510,7 +510,7 @@
     <t>cycles</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-cycles|0.1.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-cycles|0.2.0}
 </t>
   </si>
   <si>
@@ -526,7 +526,7 @@
     <t>therapyLine</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/ext-therapy-line-reference|0.1.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/ext-therapy-line-reference|0.2.0}
 </t>
   </si>
   <si>
@@ -542,7 +542,7 @@
     <t>adjunctiveRole</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-adjunctive-role|0.1.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-adjunctive-role|0.2.0}
 </t>
   </si>
   <si>
@@ -558,7 +558,7 @@
     <t>isPrimaryTherapy</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-is-primary-therapy|0.1.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-is-primary-therapy|0.2.0}
 </t>
   </si>
   <si>
@@ -693,7 +693,7 @@
     <t>A code indicating why the administration was not performed.</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-treatment-termination-reasons|0.1.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-treatment-termination-reasons|0.2.0</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -767,13 +767,13 @@
     <t>medicationCodeableConcept</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-antineoplastic-agents|0.1.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-antineoplastic-agents|0.2.0</t>
   </si>
   <si>
     <t>MedicationAdministration.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
 </t>
   </si>
   <si>
@@ -977,7 +977,7 @@
     <t>MedicationAdministration.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition|0.1.0|http://onconova.github.io/fhir/StructureDefinition/onconova-secondary-cancer-condition|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-secondary-cancer-condition|0.2.0)
 </t>
   </si>
   <si>

--- a/StructureDefinition-onconova-medication-administration.xlsx
+++ b/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:44:17+00:00</t>
+    <t>2025-11-07T05:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-medication-administration.xlsx
+++ b/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T05:59:36+00:00</t>
+    <t>2025-11-11T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-medication-administration.xlsx
+++ b/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:30:26+00:00</t>
+    <t>2025-11-11T12:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-medication-administration.xlsx
+++ b/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:47:38+00:00</t>
+    <t>2025-11-18T09:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-medication-administration.xlsx
+++ b/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:06:42+00:00</t>
+    <t>2025-11-19T13:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-medication-administration.xlsx
+++ b/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T13:56:54+00:00</t>
+    <t>2025-11-19T14:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-medication-administration.xlsx
+++ b/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:47:01+00:00</t>
+    <t>2025-11-21T06:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-medication-administration.xlsx
+++ b/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T06:40:28+00:00</t>
+    <t>2025-11-21T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-medication-administration.xlsx
+++ b/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T12:46:13+00:00</t>
+    <t>2025-11-21T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-medication-administration.xlsx
+++ b/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:06:51+00:00</t>
+    <t>2025-11-22T09:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-medication-administration.xlsx
+++ b/StructureDefinition-onconova-medication-administration.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$50</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="378">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:54:31+00:00</t>
+    <t>2025-11-22T09:58:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,8 +84,11 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile representing a medication administered to a cancer patient during a systemic therapy (e.g., chemotherapy, immunotherapy), including details about the medication and dosage. 
-This profile extends the base mCODE [CancerRelatedMedicationAdministration profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-cancer-related-medication-administration) to introduce additional information about the systemic therapy (e.g. number of cycles, therapeutic role, etc.) and to introduce references to other medication administration given simultaneously to represent combination therapies.</t>
+    <t xml:space="preserve">A profile representing a medication administered to a cancer patient during a systemic therapy (e.g., chemotherapy, immunotherapy), including details about the medication and dosage. 
+This profile extends the base mCODE [CancerRelatedMedicationAdministration profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-cancer-related-medication-administration) to introduce additional information about the systemic therapy (e.g. number of cycles, therapeutic role, etc.) and to introduce references to other medication administration given simultaneously to represent combination therapies.
+Since Onocnova treats systemic therapies involving multiple antineoplastic agents administered together or in sequence as part of a single treatment plan, this profile allows for capturing such relationships between medication administrations using the `MedicationAdministration.extension[combinedWith]` extension slices.
+**Conformance:**
+MedicationAdministration resources representing a systemic therapy in the scope of Onconova SHALL conform to this profile. Any resource intended to conform to this profile SHOULD populate `meta.profile` accordingly. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -115,7 +118,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-cancer-related-medication-administration|4.0.0</t>
+    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-cancer-related-medication-administration</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -367,7 +370,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -458,7 +461,7 @@
     <t>treatmentIntent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-procedure-intent|4.0.0}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-procedure-intent}
 </t>
   </si>
   <si>
@@ -478,14 +481,11 @@
     <t>normalizationBasis</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-normalization-basis|4.0.0}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-normalization-basis}
 </t>
   </si>
   <si>
-    <t>Normalization Basis Extension</t>
-  </si>
-  <si>
-    <t>The method (e.g., body weight, body surface area, flat dose, age) used to normalize the medication dosage.</t>
+    <t>Not used in this profile</t>
   </si>
   <si>
     <t>MedicationAdministration.extension:combinedWith</t>
@@ -494,14 +494,14 @@
     <t>combinedWith</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-combined-with|0.2.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-medication-administration-combined-with}
 </t>
   </si>
   <si>
     <t>Other medication administered in combination</t>
   </si>
   <si>
-    <t>Indicates that this medication administration was given in combination with another medication administration.</t>
+    <t>Indicates which medication administrations were given in combination with the current medication administration.</t>
   </si>
   <si>
     <t>MedicationAdministration.extension:cycles</t>
@@ -510,7 +510,7 @@
     <t>cycles</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-cycles|0.2.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-medication-administration-cycles}
 </t>
   </si>
   <si>
@@ -526,7 +526,7 @@
     <t>therapyLine</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/ext-therapy-line-reference|0.2.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-reference}
 </t>
   </si>
   <si>
@@ -542,7 +542,7 @@
     <t>adjunctiveRole</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-adjunctive-role|0.2.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-medication-administration-adjunctive-role}
 </t>
   </si>
   <si>
@@ -558,7 +558,7 @@
     <t>isPrimaryTherapy</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-is-primary-therapy|0.2.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-medication-administration-is-primary-therapy}
 </t>
   </si>
   <si>
@@ -634,13 +634,10 @@
     <t>MedicationAdministration.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|Procedure|4.0.1)
+    <t xml:space="preserve">Reference(MedicationAdministration|Procedure)
 </t>
   </si>
   <si>
-    <t>Not used in this profile</t>
-  </si>
-  <si>
     <t>Event.partOf</t>
   </si>
   <si>
@@ -648,12 +645,6 @@
   </si>
   <si>
     <t>MedicationAdministration.status</t>
-  </si>
-  <si>
-    <t>in-progress | not-done | on-hold | completed | entered-in-error | stopped | unknown</t>
-  </si>
-  <si>
-    <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions, it is possible for an administration to be started but not completed or it may be paused while some other process is under way.</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
@@ -693,7 +684,7 @@
     <t>A code indicating why the administration was not performed.</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-treatment-termination-reasons|0.2.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-treatment-termination-reasons</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -717,7 +708,7 @@
     <t>A coded concept describing where the medication administered is expected to occur.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-admin-category|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-admin-category</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication usage"].value</t>
@@ -726,10 +717,6 @@
     <t>MedicationAdministration.medication[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-Reference(Medication|4.0.1)</t>
-  </si>
-  <si>
     <t>What was administered</t>
   </si>
   <si>
@@ -739,69 +726,53 @@
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://cts.nlm.nih.gov/fhir/ValueSet/2.16.840.1.113762.1.4.1010.4|20170601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-antineoplastic-agents</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=ADMM]</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>RXA-5-Administered Code</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient)
 </t>
   </si>
   <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=ADMM]</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>RXA-5-Administered Code</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x]:medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-antineoplastic-agents|0.2.0</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
+    <t>Who received medication</t>
+  </si>
+  <si>
+    <t>The patient receiving the medication.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>PID-3-Patient ID List</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
 </t>
   </si>
   <si>
-    <t>Who received medication</t>
-  </si>
-  <si>
-    <t>The patient receiving the medication.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>PID-3-Patient ID List</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1|EpisodeOfCare|4.0.1)
-</t>
-  </si>
-  <si>
     <t>Event.context</t>
   </si>
   <si>
@@ -817,7 +788,7 @@
     <t>MedicationAdministration.supportingInformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource|4.0.1)
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -931,7 +902,7 @@
     <t>A code describing the role an individual played in administering the medication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/med-admin-perform-function|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/med-admin-perform-function</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -943,7 +914,7 @@
     <t>MedicationAdministration.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Device|4.0.1)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson|Device)
 </t>
   </si>
   <si>
@@ -962,7 +933,10 @@
     <t>MedicationAdministration.reasonCode</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-cancer-disorder-vs|4.0.0</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-cancer-disorder-vs</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -977,11 +951,11 @@
     <t>MedicationAdministration.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-secondary-cancer-condition|0.2.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition|http://onconova.github.io/fhir/StructureDefinition/onconova-secondary-cancer-condition)
 </t>
   </si>
   <si>
-    <t>Condition or observation that supports why the medication was administered</t>
+    <t>The condition(s) that motivated the medication administration</t>
   </si>
   <si>
     <t>Condition or observation that supports why the medication was administered.</t>
@@ -1005,7 +979,7 @@
     <t>MedicationAdministration.request</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest|4.0.1)
+    <t xml:space="preserve">Reference(MedicationRequest)
 </t>
   </si>
   <si>
@@ -1024,7 +998,7 @@
     <t>MedicationAdministration.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|4.0.1)
+    <t xml:space="preserve">Reference(Device)
 </t>
   </si>
   <si>
@@ -1113,7 +1087,7 @@
     <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/approach-site-codes|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
@@ -1134,7 +1108,7 @@
     <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/route-codes|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
   </si>
   <si>
     <t>.routeCode</t>
@@ -1158,7 +1132,7 @@
     <t>A coded concept describing the technique by which the medicine is administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/administration-method-codes|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
   </si>
   <si>
     <t>.methodCode</t>
@@ -1170,7 +1144,7 @@
     <t>MedicationAdministration.dosage.dose</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1193,7 +1167,7 @@
   </si>
   <si>
     <t>Ratio
-Quantity {SimpleQuantity|4.0.1}</t>
+Quantity {SimpleQuantity}</t>
   </si>
   <si>
     <t>Dose quantity per unit of time</t>
@@ -1214,7 +1188,7 @@
     <t>MedicationAdministration.eventHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Provenance|4.0.1)
+    <t xml:space="preserve">Reference(Provenance)
 </t>
   </si>
   <si>
@@ -1547,7 +1521,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO51"/>
+  <dimension ref="A1:AO50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1556,9 +1530,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.63671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.1796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="15.78125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1566,7 +1540,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="155.96484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="146.90625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1581,7 +1555,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="106.67578125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="71.46484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.93359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
@@ -2551,7 +2525,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>79</v>
@@ -2666,7 +2640,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>87</v>
@@ -2804,7 +2778,7 @@
         <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2887,13 +2861,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>20</v>
@@ -2915,13 +2889,13 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3004,13 +2978,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>20</v>
@@ -3032,13 +3006,13 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3121,13 +3095,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>20</v>
@@ -3149,13 +3123,13 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3238,13 +3212,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>20</v>
@@ -3266,13 +3240,13 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3355,13 +3329,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>20</v>
@@ -3383,13 +3357,13 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3472,14 +3446,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3501,16 +3475,16 @@
         <v>132</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -3559,7 +3533,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3591,10 +3565,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3617,16 +3591,16 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3676,7 +3650,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3691,13 +3665,13 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>20</v>
@@ -3708,10 +3682,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3737,10 +3711,10 @@
         <v>101</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3791,7 +3765,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3806,10 +3780,10 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>20</v>
@@ -3823,10 +3797,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3849,13 +3823,13 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3906,7 +3880,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3921,10 +3895,10 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>20</v>
@@ -3938,10 +3912,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3967,13 +3941,13 @@
         <v>107</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3999,13 +3973,13 @@
         <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>20</v>
@@ -4023,7 +3997,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>87</v>
@@ -4038,16 +4012,16 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>20</v>
@@ -4055,10 +4029,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4066,10 +4040,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>88</v>
@@ -4081,13 +4055,13 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4114,11 +4088,11 @@
         <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>20</v>
@@ -4136,7 +4110,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4151,16 +4125,16 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>20</v>
@@ -4168,10 +4142,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4194,13 +4168,13 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4230,10 +4204,10 @@
         <v>111</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>20</v>
@@ -4251,7 +4225,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4269,7 +4243,7 @@
         <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>20</v>
@@ -4281,12 +4255,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4309,16 +4283,16 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4344,27 +4318,29 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AC24" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AD24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>87</v>
@@ -4379,16 +4355,16 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>20</v>
@@ -4396,20 +4372,18 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>87</v>
@@ -4424,17 +4398,15 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4459,11 +4431,13 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>239</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
@@ -4481,7 +4455,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>87</v>
@@ -4496,27 +4470,27 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4524,28 +4498,28 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>148</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>148</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4596,10 +4570,10 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>87</v>
@@ -4611,16 +4585,16 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>20</v>
@@ -4628,10 +4602,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4642,7 +4616,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>20</v>
@@ -4654,13 +4628,13 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4711,13 +4685,13 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>20</v>
@@ -4726,27 +4700,27 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4754,28 +4728,28 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>197</v>
+        <v>250</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4826,13 +4800,13 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
@@ -4841,27 +4815,27 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>20</v>
+        <v>254</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4869,13 +4843,13 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>20</v>
@@ -4884,13 +4858,13 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>148</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>260</v>
+        <v>148</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4941,13 +4915,13 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
@@ -4956,16 +4930,16 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>20</v>
@@ -4973,10 +4947,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4987,7 +4961,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
@@ -4996,16 +4970,16 @@
         <v>20</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>197</v>
+        <v>264</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5062,25 +5036,25 @@
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>267</v>
+        <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>269</v>
+        <v>20</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>20</v>
@@ -5088,21 +5062,21 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>20</v>
@@ -5114,15 +5088,17 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>272</v>
+        <v>132</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5171,25 +5147,25 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>20</v>
@@ -5203,14 +5179,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5223,24 +5199,26 @@
         <v>20</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="N32" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="O32" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>20</v>
       </c>
@@ -5288,7 +5266,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5306,7 +5284,7 @@
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>276</v>
+        <v>130</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>20</v>
@@ -5320,46 +5298,42 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>282</v>
+        <v>20</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
       </c>
@@ -5383,13 +5357,13 @@
         <v>20</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>20</v>
+        <v>279</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>20</v>
+        <v>281</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>20</v>
@@ -5407,25 +5381,25 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>20</v>
+        <v>282</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>130</v>
+        <v>283</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>20</v>
@@ -5439,10 +5413,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5450,7 +5424,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>87</v>
@@ -5462,16 +5436,16 @@
         <v>20</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>212</v>
+        <v>285</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5498,13 +5472,13 @@
         <v>20</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>290</v>
+        <v>20</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>291</v>
+        <v>20</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
@@ -5522,10 +5496,10 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>87</v>
@@ -5537,10 +5511,10 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>20</v>
@@ -5552,12 +5526,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5565,28 +5539,28 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>295</v>
+        <v>208</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
+        <v>148</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>297</v>
+        <v>148</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5613,13 +5587,11 @@
         <v>20</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>20</v>
+        <v>292</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>20</v>
@@ -5637,13 +5609,13 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
@@ -5652,16 +5624,16 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
@@ -5669,10 +5641,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5680,7 +5652,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>79</v>
@@ -5695,15 +5667,17 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>212</v>
+        <v>297</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>197</v>
+        <v>298</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -5728,11 +5702,13 @@
         <v>20</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="Y36" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z36" t="s" s="2">
-        <v>301</v>
+        <v>20</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>20</v>
@@ -5750,7 +5726,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5765,22 +5741,22 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AM36" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="AN36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AO36" t="s" s="2">
-        <v>20</v>
-      </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>305</v>
       </c>
@@ -5796,10 +5772,10 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>20</v>
@@ -5811,13 +5787,13 @@
         <v>306</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5873,7 +5849,7 @@
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>20</v>
@@ -5882,27 +5858,27 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AL37" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="AO37" t="s" s="2">
-        <v>313</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5913,7 +5889,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
@@ -5925,17 +5901,15 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -5984,13 +5958,13 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>20</v>
@@ -5999,16 +5973,16 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>317</v>
+        <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -6016,10 +5990,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6042,13 +6016,13 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6099,7 +6073,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6114,27 +6088,27 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>20</v>
+        <v>321</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>325</v>
+        <v>20</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6145,10 +6119,10 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>20</v>
@@ -6157,13 +6131,13 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>327</v>
+        <v>256</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6214,25 +6188,25 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK40" t="s" s="2">
-        <v>330</v>
+        <v>20</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>20</v>
@@ -6246,10 +6220,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6272,13 +6246,13 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>333</v>
+        <v>263</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>334</v>
+        <v>264</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6329,7 +6303,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>332</v>
+        <v>265</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6341,13 +6315,13 @@
         <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>335</v>
+        <v>20</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>20</v>
@@ -6361,21 +6335,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
@@ -6387,15 +6361,17 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>272</v>
+        <v>132</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -6444,25 +6420,25 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>20</v>
@@ -6476,14 +6452,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6496,24 +6472,26 @@
         <v>20</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="N43" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="O43" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>20</v>
       </c>
@@ -6561,7 +6539,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6579,7 +6557,7 @@
         <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>276</v>
+        <v>130</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>20</v>
@@ -6593,46 +6571,42 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>282</v>
+        <v>20</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>132</v>
+        <v>262</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>283</v>
+        <v>332</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>20</v>
       </c>
@@ -6680,25 +6654,25 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>130</v>
+        <v>334</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>20</v>
@@ -6712,10 +6686,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6738,15 +6712,17 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>272</v>
+        <v>208</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -6771,13 +6747,13 @@
         <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>20</v>
+        <v>279</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>20</v>
+        <v>339</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>20</v>
+        <v>340</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>20</v>
@@ -6795,7 +6771,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6813,13 +6789,13 @@
         <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>20</v>
+        <v>342</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -6827,10 +6803,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6853,17 +6829,15 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>347</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -6888,13 +6862,13 @@
         <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -6912,7 +6886,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6930,13 +6904,13 @@
         <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -6944,10 +6918,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6970,15 +6944,17 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7003,14 +6979,14 @@
         <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Z47" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
       </c>
@@ -7027,7 +7003,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7045,13 +7021,13 @@
         <v>20</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
@@ -7059,10 +7035,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7085,7 +7061,7 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>212</v>
+        <v>359</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>360</v>
@@ -7120,13 +7096,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>363</v>
+        <v>20</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>364</v>
+        <v>20</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7144,7 +7120,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7162,13 +7138,13 @@
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>20</v>
@@ -7176,10 +7152,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7202,16 +7178,16 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7261,7 +7237,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7279,13 +7255,13 @@
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
@@ -7293,10 +7269,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7307,7 +7283,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>20</v>
@@ -7319,16 +7295,16 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7378,13 +7354,13 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>20</v>
@@ -7396,137 +7372,20 @@
         <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>380</v>
+        <v>20</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O51" s="2"/>
-      <c r="P51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO51" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO51">
+  <autoFilter ref="A1:AO50">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7536,7 +7395,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI50">
+  <conditionalFormatting sqref="A2:AI49">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-onconova-medication-administration.xlsx
+++ b/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:58:04+00:00</t>
+    <t>2025-11-24T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-medication-administration.xlsx
+++ b/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:04:46+00:00</t>
+    <t>2025-11-24T08:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-medication-administration.xlsx
+++ b/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:19:06+00:00</t>
+    <t>2025-11-24T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-medication-administration.xlsx
+++ b/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:55:00+00:00</t>
+    <t>2025-11-24T09:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-medication-administration.xlsx
+++ b/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:24:28+00:00</t>
+    <t>2025-11-24T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-medication-administration.xlsx
+++ b/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T11:19:41+00:00</t>
+    <t>2025-11-25T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-medication-administration.xlsx
+++ b/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T07:35:44+00:00</t>
+    <t>2025-11-25T10:34:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-medication-administration.xlsx
+++ b/StructureDefinition-onconova-medication-administration.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$54</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="396">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T10:34:25+00:00</t>
+    <t>2025-11-27T10:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -275,7 +275,7 @@
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mcode-reason-required:One of reasonCode or reasonReference SHALL be present {reasonCode.exists() or reasonReference.exists()}termination-reason-code-invariant:When status is stopped, only certain statusReason values are allowed {status = 'stopped' and statusReason.exists() and statusReason.coding.exists() implies statusReason.coding.exists(system = 'http://snomed.info/sct' and (code = '182992009' or code = '266721009' or code = '407563006' or code = '160932005' or code = '105480006' or code = '184081006' or code = '309846006' or code = '399307001' or code = '419620001' or code = '7058009' or code = '443729008' or code = '77386006'))}termination-reason-invariant:Certain statusReason values are allowed only when status is stopped {statusReason.exists() and statusReason.coding.exists(
       system = 'http://snomed.info/sct' and (code = '182992009' or code = '266721009' or code = '407563006' or code = '160932005' or
- code = '105480006' or code = '184081006' or code = '309846006' or code = '399307001' or  code = '419620001' or code = '7058009' or code = '443729008' or code = '77386006')) implies status = 'stopped'}o-med-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-med-req-2:The effectivePeriod element is required and must be provided. {effectivePeriod.exists() and effectivePeriod.hasValue()}o-med-req-3:The treatmentIntent extension is required and must be provided. {extension('http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-procedure-intent').exists()}o-med-req-4:The medicationCodeableConcept element is required and must be provided. {medicationCodeableConcept.exists() and medicationCodeableConcept.coding.exists()}</t>
+ code = '105480006' or code = '184081006' or code = '309846006' or code = '399307001' or  code = '419620001' or code = '7058009' or code = '443729008' or code = '77386006')) implies status = 'stopped'}o-med-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-med-req-2:The effectivePeriod element is required and must be provided. {effectivePeriod.exists()}o-med-req-3:The treatmentIntent extension is required and must be provided. {extension('http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-procedure-intent').exists()}o-med-req-4:The medicationCodeableConcept element is required and must be provided. {medicationCodeableConcept.exists() and medicationCodeableConcept.coding.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -475,6 +475,86 @@
 </t>
   </si>
   <si>
+    <t>MedicationAdministration.extension:treatmentIntent.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.extension:treatmentIntent.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.extension:treatmentIntent.url</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-procedure-intent</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.extension:treatmentIntent.value[x]</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-treatment-intents</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
     <t>MedicationAdministration.extension:normalizationBasis</t>
   </si>
   <si>
@@ -650,9 +730,6 @@
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>A set of codes indicating the current status of a MedicationAdministration.</t>
   </si>
   <si>
@@ -672,10 +749,6 @@
   </si>
   <si>
     <t>MedicationAdministration.statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Reason administration not performed</t>
@@ -842,22 +915,6 @@
     <t>MedicationAdministration.performer.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationAdministration.performer.extension</t>
   </si>
   <si>
@@ -865,9 +922,6 @@
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.modifierExtension</t>
@@ -1521,7 +1575,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO50"/>
+  <dimension ref="A1:AO54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1530,7 +1584,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.50390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.1796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="15.78125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
@@ -1558,7 +1612,7 @@
     <col min="26" max="26" width="66.93359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="39.109375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2747,11 +2801,9 @@
         <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C11" t="s" s="2">
         <v>146</v>
       </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>20</v>
       </c>
@@ -2778,7 +2830,7 @@
         <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2829,25 +2881,25 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>20</v>
@@ -2859,16 +2911,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>20</v>
       </c>
@@ -2877,10 +2927,10 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>20</v>
@@ -2889,13 +2939,13 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2934,19 +2984,19 @@
         <v>20</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2976,28 +3026,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>20</v>
@@ -3006,22 +3054,24 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>20</v>
@@ -3063,25 +3113,25 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>20</v>
@@ -3093,28 +3143,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>20</v>
@@ -3123,13 +3171,13 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3156,13 +3204,11 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -3180,25 +3226,25 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>20</v>
@@ -3210,15 +3256,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>20</v>
@@ -3231,7 +3277,7 @@
         <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>20</v>
@@ -3240,13 +3286,13 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3306,7 +3352,7 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>138</v>
@@ -3329,13 +3375,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>20</v>
@@ -3345,7 +3391,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>88</v>
@@ -3357,13 +3403,13 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3444,48 +3490,46 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="D17" t="s" s="2">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>20</v>
       </c>
@@ -3533,7 +3577,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3551,7 +3595,7 @@
         <v>20</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>20</v>
@@ -3563,14 +3607,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>20</v>
       </c>
@@ -3579,10 +3625,10 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>20</v>
@@ -3591,17 +3637,15 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -3650,7 +3694,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3662,16 +3706,16 @@
         <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>20</v>
@@ -3680,14 +3724,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>20</v>
       </c>
@@ -3696,25 +3742,25 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3765,7 +3811,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3777,13 +3823,13 @@
         <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>20</v>
@@ -3795,14 +3841,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>20</v>
       </c>
@@ -3811,25 +3859,25 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3880,7 +3928,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3892,13 +3940,13 @@
         <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>196</v>
+        <v>20</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>20</v>
@@ -3910,46 +3958,48 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
       </c>
@@ -3973,13 +4023,13 @@
         <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>20</v>
@@ -3997,37 +4047,37 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>203</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>207</v>
       </c>
@@ -4040,13 +4090,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>20</v>
@@ -4063,7 +4113,9 @@
       <c r="M22" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="N22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4088,11 +4140,13 @@
         <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="Y22" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z22" t="s" s="2">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>20</v>
@@ -4131,10 +4185,10 @@
         <v>213</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>20</v>
@@ -4156,7 +4210,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
@@ -4165,10 +4219,10 @@
         <v>20</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>216</v>
@@ -4201,13 +4255,13 @@
         <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>20</v>
@@ -4231,7 +4285,7 @@
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>20</v>
@@ -4240,27 +4294,27 @@
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO23" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AM23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="B24" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4268,13 +4322,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>20</v>
@@ -4283,17 +4337,15 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4318,11 +4370,13 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z24" t="s" s="2">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -4340,13 +4394,13 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>20</v>
@@ -4355,16 +4409,16 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>229</v>
+        <v>20</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>20</v>
@@ -4372,10 +4426,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4392,21 +4446,23 @@
         <v>88</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>231</v>
+        <v>107</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4431,13 +4487,13 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>20</v>
+        <v>226</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
@@ -4455,7 +4511,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>87</v>
@@ -4470,27 +4526,27 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4498,13 +4554,13 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>20</v>
@@ -4513,13 +4569,13 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>239</v>
+        <v>165</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>148</v>
+        <v>234</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4546,13 +4602,11 @@
         <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>20</v>
@@ -4570,13 +4624,13 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>20</v>
@@ -4585,16 +4639,16 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>20</v>
@@ -4602,10 +4656,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4616,7 +4670,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>20</v>
@@ -4628,13 +4682,13 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>245</v>
+        <v>165</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>148</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>148</v>
+        <v>241</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4661,13 +4715,13 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>20</v>
+        <v>242</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -4685,13 +4739,13 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>20</v>
@@ -4703,10 +4757,10 @@
         <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>20</v>
@@ -4717,10 +4771,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4743,15 +4797,17 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -4776,13 +4832,11 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>20</v>
+        <v>249</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -4800,7 +4854,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>87</v>
@@ -4815,27 +4869,27 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AO28" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" hidden="true">
-      <c r="A29" t="s" s="2">
-        <v>255</v>
-      </c>
       <c r="B29" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4843,13 +4897,13 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>20</v>
@@ -4858,13 +4912,13 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>148</v>
-      </c>
       <c r="M29" t="s" s="2">
-        <v>148</v>
+        <v>257</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4915,13 +4969,13 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
@@ -4930,16 +4984,16 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>20</v>
@@ -4947,10 +5001,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4973,13 +5027,13 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>263</v>
+        <v>174</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>264</v>
+        <v>174</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5030,7 +5084,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5042,19 +5096,19 @@
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AM30" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="AN30" t="s" s="2">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>20</v>
@@ -5062,14 +5116,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5088,17 +5142,15 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>132</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>268</v>
+        <v>174</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5147,7 +5199,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5159,17 +5211,17 @@
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AM31" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="AN31" t="s" s="2">
         <v>20</v>
       </c>
@@ -5177,7 +5229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>271</v>
       </c>
@@ -5186,26 +5238,26 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>132</v>
+        <v>272</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>273</v>
@@ -5213,12 +5265,8 @@
       <c r="M32" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="N32" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>179</v>
-      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>20</v>
       </c>
@@ -5266,31 +5314,31 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="AL32" t="s" s="2">
-        <v>130</v>
+        <v>276</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>20</v>
+        <v>277</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>20</v>
+        <v>278</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
@@ -5298,10 +5346,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5312,7 +5360,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
@@ -5321,16 +5369,16 @@
         <v>20</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>208</v>
+        <v>280</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>277</v>
+        <v>174</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>278</v>
+        <v>174</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5357,37 +5405,37 @@
         <v>20</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
@@ -5396,16 +5444,16 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AM33" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="AN33" t="s" s="2">
-        <v>20</v>
+        <v>284</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -5413,10 +5461,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5424,7 +5472,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>87</v>
@@ -5436,16 +5484,16 @@
         <v>20</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>285</v>
+        <v>147</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>286</v>
+        <v>148</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>287</v>
+        <v>149</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5496,10 +5544,10 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>284</v>
+        <v>150</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>87</v>
@@ -5508,13 +5556,13 @@
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>288</v>
+        <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>289</v>
+        <v>151</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>20</v>
@@ -5526,16 +5574,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5545,7 +5593,7 @@
         <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>20</v>
@@ -5554,15 +5602,17 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>148</v>
+        <v>287</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -5587,11 +5637,13 @@
         <v>20</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="Y35" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z35" t="s" s="2">
-        <v>292</v>
+        <v>20</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>20</v>
@@ -5609,7 +5661,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>290</v>
+        <v>155</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5621,64 +5673,66 @@
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>294</v>
+        <v>151</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>295</v>
+        <v>20</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>20</v>
+        <v>290</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I36" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>297</v>
+        <v>132</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
       </c>
@@ -5726,7 +5780,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5738,30 +5792,30 @@
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>301</v>
+        <v>20</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>302</v>
+        <v>130</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>303</v>
+        <v>20</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>304</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5784,17 +5838,15 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>306</v>
+        <v>165</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>148</v>
+        <v>295</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -5819,13 +5871,13 @@
         <v>20</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>20</v>
+        <v>297</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>20</v>
+        <v>298</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>20</v>
@@ -5843,7 +5895,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5858,16 +5910,16 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>310</v>
+        <v>20</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
@@ -5875,10 +5927,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5886,10 +5938,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
@@ -5898,16 +5950,16 @@
         <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5958,13 +6010,13 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>20</v>
@@ -5973,27 +6025,27 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>20</v>
+        <v>306</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>316</v>
+        <v>20</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6007,7 +6059,7 @@
         <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>20</v>
@@ -6016,13 +6068,13 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>318</v>
+        <v>165</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>319</v>
+        <v>174</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>320</v>
+        <v>174</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6049,13 +6101,11 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>20</v>
+        <v>310</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6073,7 +6123,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6088,16 +6138,16 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>20</v>
+        <v>313</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
@@ -6105,10 +6155,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6116,10 +6166,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>88</v>
@@ -6131,15 +6181,17 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>256</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6188,42 +6240,42 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>326</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>20</v>
+        <v>319</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>20</v>
+        <v>321</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>20</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6246,15 +6298,17 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>262</v>
+        <v>324</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>263</v>
+        <v>174</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -6303,7 +6357,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>265</v>
+        <v>323</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6315,19 +6369,19 @@
         <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>20</v>
+        <v>326</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>266</v>
+        <v>327</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>20</v>
+        <v>328</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
@@ -6342,7 +6396,7 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6361,17 +6415,15 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>132</v>
+        <v>330</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>268</v>
+        <v>331</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -6420,7 +6472,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>270</v>
+        <v>329</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6432,19 +6484,19 @@
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>266</v>
+        <v>333</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -6452,14 +6504,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6472,26 +6524,22 @@
         <v>20</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>132</v>
+        <v>336</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>20</v>
       </c>
@@ -6539,7 +6587,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6551,13 +6599,13 @@
         <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>20</v>
+        <v>339</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>130</v>
+        <v>340</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>20</v>
@@ -6569,12 +6617,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6588,7 +6636,7 @@
         <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>20</v>
@@ -6597,13 +6645,13 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6654,7 +6702,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6666,13 +6714,13 @@
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>344</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>20</v>
@@ -6686,10 +6734,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6712,17 +6760,15 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>336</v>
+        <v>148</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -6747,13 +6793,13 @@
         <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>279</v>
+        <v>20</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>339</v>
+        <v>20</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>340</v>
+        <v>20</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>20</v>
@@ -6771,7 +6817,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>335</v>
+        <v>150</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6783,19 +6829,19 @@
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>341</v>
+        <v>151</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>342</v>
+        <v>20</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -6803,21 +6849,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -6829,15 +6875,17 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -6862,13 +6910,13 @@
         <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>279</v>
+        <v>20</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>346</v>
+        <v>20</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>347</v>
+        <v>20</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -6886,31 +6934,31 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>343</v>
+        <v>155</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>348</v>
+        <v>151</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>349</v>
+        <v>20</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -6918,44 +6966,46 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>20</v>
+        <v>290</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>351</v>
+        <v>291</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>352</v>
+        <v>292</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
       </c>
@@ -6979,13 +7029,13 @@
         <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>279</v>
+        <v>20</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>354</v>
+        <v>20</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>355</v>
+        <v>20</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
@@ -7003,31 +7053,31 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>356</v>
+        <v>130</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>357</v>
+        <v>20</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
@@ -7035,10 +7085,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7061,17 +7111,15 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>359</v>
+        <v>147</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7120,7 +7168,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7138,13 +7186,13 @@
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>364</v>
+        <v>20</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>20</v>
@@ -7152,10 +7200,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7178,16 +7226,16 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>366</v>
+        <v>165</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7213,13 +7261,13 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>20</v>
+        <v>297</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>20</v>
+        <v>357</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>20</v>
+        <v>358</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -7237,7 +7285,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7255,13 +7303,13 @@
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
@@ -7269,10 +7317,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7283,7 +7331,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>20</v>
@@ -7295,17 +7343,15 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>373</v>
+        <v>165</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -7330,13 +7376,13 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>20</v>
+        <v>297</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>20</v>
+        <v>364</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>20</v>
+        <v>365</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -7354,13 +7400,13 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>20</v>
@@ -7372,20 +7418,488 @@
         <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AM50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO50" t="s" s="2">
+      <c r="L52" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO54" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO50">
+  <autoFilter ref="A1:AO54">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7395,7 +7909,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI49">
+  <conditionalFormatting sqref="A2:AI53">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-onconova-medication-administration.xlsx
+++ b/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T10:13:46+00:00</t>
+    <t>2025-11-27T13:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-medication-administration.xlsx
+++ b/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T13:06:44+00:00</t>
+    <t>2025-12-04T06:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-medication-administration.xlsx
+++ b/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:29:30+00:00</t>
+    <t>2025-12-04T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -275,7 +275,7 @@
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mcode-reason-required:One of reasonCode or reasonReference SHALL be present {reasonCode.exists() or reasonReference.exists()}termination-reason-code-invariant:When status is stopped, only certain statusReason values are allowed {status = 'stopped' and statusReason.exists() and statusReason.coding.exists() implies statusReason.coding.exists(system = 'http://snomed.info/sct' and (code = '182992009' or code = '266721009' or code = '407563006' or code = '160932005' or code = '105480006' or code = '184081006' or code = '309846006' or code = '399307001' or code = '419620001' or code = '7058009' or code = '443729008' or code = '77386006'))}termination-reason-invariant:Certain statusReason values are allowed only when status is stopped {statusReason.exists() and statusReason.coding.exists(
       system = 'http://snomed.info/sct' and (code = '182992009' or code = '266721009' or code = '407563006' or code = '160932005' or
- code = '105480006' or code = '184081006' or code = '309846006' or code = '399307001' or  code = '419620001' or code = '7058009' or code = '443729008' or code = '77386006')) implies status = 'stopped'}o-med-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-med-req-2:The effectivePeriod element is required and must be provided. {effectivePeriod.exists()}o-med-req-3:The treatmentIntent extension is required and must be provided. {extension('http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-procedure-intent').exists()}o-med-req-4:The medicationCodeableConcept element is required and must be provided. {medicationCodeableConcept.exists() and medicationCodeableConcept.coding.exists()}</t>
+ code = '105480006' or code = '184081006' or code = '309846006' or code = '399307001' or  code = '419620001' or code = '7058009' or code = '443729008' or code = '77386006')) implies status = 'stopped'}o-med-req-1:The subject element is required and must be provided. {subject.exists()}o-med-req-2:The effectivePeriod element is required and must be provided. {effectivePeriod.exists()}o-med-req-3:The treatmentIntent extension is required and must be provided. {extension('http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-procedure-intent').exists()}o-med-req-4:The medicationCodeableConcept element is required and must be provided. {medicationCodeableConcept.exists() and medicationCodeableConcept.coding.exists()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/StructureDefinition-onconova-medication-administration.xlsx
+++ b/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:46:00+00:00</t>
+    <t>2025-12-04T07:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-medication-administration.xlsx
+++ b/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T07:07:35+00:00</t>
+    <t>2025-12-04T10:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-medication-administration.xlsx
+++ b/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:18:27+00:00</t>
+    <t>2025-12-04T10:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-medication-administration.xlsx
+++ b/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:59:28+00:00</t>
+    <t>2026-02-25T14:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-medication-administration.xlsx
+++ b/StructureDefinition-onconova-medication-administration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T14:29:35+00:00</t>
+    <t>2026-02-25T15:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
